--- a/app/webroot/excel/monthly-report-expense.xlsx
+++ b/app/webroot/excel/monthly-report-expense.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>【店内経費支払表】</t>
+  </si>
+  <si>
+    <t>※税込</t>
   </si>
   <si>
     <t>日</t>
@@ -22,7 +25,23 @@
     <t>曜</t>
   </si>
   <si>
-    <t>売上</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t xml:space="preserve">売上
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t>(割引/割増後)</t>
+    </r>
   </si>
   <si>
     <t>クレジット</t>
@@ -31,10 +50,42 @@
     <t>売上差引</t>
   </si>
   <si>
-    <t>ポイント/金券</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t xml:space="preserve">売掛
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t>(ポイント等)</t>
+    </r>
   </si>
   <si>
-    <t>売掛</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t xml:space="preserve">売掛
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t>(その他)</t>
+    </r>
   </si>
   <si>
     <t>経費小計</t>
@@ -46,10 +97,42 @@
     <t>差引現金</t>
   </si>
   <si>
-    <t>割引/割増</t>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t xml:space="preserve">備考①
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t>(割引/割増分)</t>
+    </r>
   </si>
   <si>
-    <t>備考</t>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t xml:space="preserve">備考②
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+      </rPr>
+      <t>(出前・テイクアウト分)</t>
+    </r>
   </si>
   <si>
     <t>合計</t>
@@ -64,7 +147,7 @@
     <numFmt numFmtId="59" formatCode="#,##0&quot; &quot;;(#,##0)"/>
     <numFmt numFmtId="60" formatCode="&quot; &quot;* #,##0&quot; &quot;;&quot;-&quot;* #,##0&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -81,38 +164,47 @@
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="小塚明朝 Pro R"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="8"/>
-      <name val="小塚明朝 Pro R"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="小塚明朝 Pro R"/>
-    </font>
-    <font>
-      <sz val="19"/>
-      <color indexed="8"/>
-      <name val="小塚明朝 Pro R"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="小塚明朝 Pro R"/>
-    </font>
-    <font>
-      <b val="1"/>
       <sz val="18"/>
       <color indexed="8"/>
-      <name val="小塚明朝 Pro R"/>
+      <name val="ＭＳ Ｐ明朝"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,20 +223,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -258,14 +338,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -276,6 +378,21 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -452,6 +569,36 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -467,21 +614,6 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -495,21 +627,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -544,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,155 +692,152 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="7" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="7" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="7" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -755,8 +869,6 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffdaeef3"/>
-      <rgbColor rgb="fffabf8f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -907,9 +1019,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -989,7 +1101,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1017,10 +1129,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1276,9 +1388,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1566,7 +1678,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1594,10 +1706,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1858,13 +1970,13 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="1.35156" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.35156" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.8516" style="1" customWidth="1"/>
-    <col min="7" max="20" width="9.35156" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1719" style="1" customWidth="1"/>
-    <col min="22" max="23" width="10.8516" style="1" customWidth="1"/>
-    <col min="24" max="25" width="11.8516" style="1" customWidth="1"/>
-    <col min="26" max="27" width="14.8516" style="1" customWidth="1"/>
+    <col min="2" max="3" width="4.35156" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="20" width="8.35156" style="1" customWidth="1"/>
+    <col min="21" max="22" width="8.85156" style="1" customWidth="1"/>
+    <col min="23" max="25" width="10.6719" style="1" customWidth="1"/>
+    <col min="26" max="27" width="16" style="1" customWidth="1"/>
     <col min="28" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1897,18 +2009,18 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" ht="37" customHeight="1">
+    <row r="2" ht="40" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="2"/>
-      <c r="H2" t="s" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="F2" t="s" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="12"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1928,17 +2040,19 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" ht="14" customHeight="1">
+    <row r="3" ht="20" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1957,1356 +2071,1347 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" ht="34" customHeight="1">
+    <row r="4" ht="37" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" t="s" s="15">
+      <c r="B4" t="s" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="18">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" t="s" s="22">
+        <v>7</v>
+      </c>
+      <c r="V4" t="s" s="23">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s" s="24">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s" s="25">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="s" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
+        <f>D5-E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="30">
+        <f>SUM(G5:V5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="31">
+        <f>F5-W5+X5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="38"/>
+    </row>
+    <row r="6" ht="25" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="16">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43">
+        <f>D6-E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="41">
+        <f>SUM(G6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="42">
+        <f>F6-W6+X6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49"/>
+    </row>
+    <row r="7" ht="25" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="39">
         <v>3</v>
       </c>
-      <c r="E4" t="s" s="17">
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43">
+        <f>D7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="41">
+        <f>SUM(G7:V7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="42">
+        <f>F7-W7+X7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="49"/>
+    </row>
+    <row r="8" ht="25" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="F4" t="s" s="18">
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43">
+        <f>D8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="41">
+        <f>SUM(G8:V8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="42">
+        <f>F8-W8+X8</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="49"/>
+    </row>
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="39">
         <v>5</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" t="s" s="21">
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43">
+        <f>D9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="41">
+        <f>SUM(G9:V9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="42">
+        <f>F9-W9+X9</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
+    </row>
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="39">
         <v>6</v>
       </c>
-      <c r="V4" t="s" s="22">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43">
+        <f>D10-E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="41">
+        <f>SUM(G10:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="42">
+        <f>F10-W10+X10</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="49"/>
+    </row>
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="39">
         <v>7</v>
       </c>
-      <c r="W4" t="s" s="23">
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43">
+        <f>D11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="41">
+        <f>SUM(G11:V11)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="42">
+        <f>F11-W11+X11</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
+    </row>
+    <row r="12" ht="25" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="39">
         <v>8</v>
       </c>
-      <c r="X4" t="s" s="24">
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43">
+        <f>D12-E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="41">
+        <f>SUM(G12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="42">
+        <f>F12-W12+X12</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="49"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="39">
         <v>9</v>
       </c>
-      <c r="Y4" t="s" s="25">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43">
+        <f>D13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="41">
+        <f>SUM(G13:V13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="42">
+        <f>F13-W13+X13</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
+    </row>
+    <row r="14" ht="25" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="39">
         <v>10</v>
       </c>
-      <c r="Z4" t="s" s="26">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43">
+        <f>D14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="41">
+        <f>SUM(G14:V14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="42">
+        <f>F14-W14+X14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="49"/>
+    </row>
+    <row r="15" ht="25" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="39">
         <v>11</v>
       </c>
-      <c r="AA4" t="s" s="26">
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43">
+        <f>D15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="41">
+        <f>SUM(G15:V15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="42">
+        <f>F15-W15+X15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="49"/>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="39">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="27">
-        <v>1</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31">
-        <f>D5-E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="29">
-        <f>SUM(G5:V5)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="30">
-        <f>F5-W5+X5</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="37">
-        <v>2</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41">
-        <f>D6-E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="39">
-        <f>SUM(G6:V6)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="40">
-        <f>F6-W6+X6</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="37">
-        <v>3</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41">
-        <f>D7-E7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="39">
-        <f>SUM(G7:V7)</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="40">
-        <f>F7-W7+X7</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-    </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="37">
-        <v>4</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41">
-        <f>D8-E8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="39">
-        <f>SUM(G8:V8)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="40">
-        <f>F8-W8+X8</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="37">
-        <v>5</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41">
-        <f>D9-E9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="39">
-        <f>SUM(G9:V9)</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="40">
-        <f>F9-W9+X9</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="37">
-        <v>6</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41">
-        <f>D10-E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="39">
-        <f>SUM(G10:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="40">
-        <f>F10-W10+X10</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="37">
-        <v>7</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41">
-        <f>D11-E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="39">
-        <f>SUM(G11:V11)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="40">
-        <f>F11-W11+X11</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="37">
-        <v>8</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41">
-        <f>D12-E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="39">
-        <f>SUM(G12:V12)</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="40">
-        <f>F12-W12+X12</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="37">
-        <v>9</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41">
-        <f>D13-E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="39">
-        <f>SUM(G13:V13)</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="40">
-        <f>F13-W13+X13</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-    </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="37">
-        <v>10</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41">
-        <f>D14-E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="39">
-        <f>SUM(G14:V14)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="40">
-        <f>F14-W14+X14</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="37">
-        <v>11</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41">
-        <f>D15-E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="39">
-        <f>SUM(G15:V15)</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="40">
-        <f>F15-W15+X15</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-    </row>
-    <row r="16" ht="21" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="37">
-        <v>12</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41">
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43">
         <f>D16-E16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="39">
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="41">
         <f>SUM(G16:V16)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="40">
+      <c r="X16" s="47"/>
+      <c r="Y16" s="42">
         <f>F16-W16+X16</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-    </row>
-    <row r="17" ht="21" customHeight="1">
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49"/>
+    </row>
+    <row r="17" ht="25" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="37">
+      <c r="B17" s="39">
         <v>13</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41">
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43">
         <f>D17-E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="39">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="41">
         <f>SUM(G17:V17)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="40">
+      <c r="X17" s="47"/>
+      <c r="Y17" s="42">
         <f>F17-W17+X17</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-    </row>
-    <row r="18" ht="21" customHeight="1">
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="49"/>
+    </row>
+    <row r="18" ht="25" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="37">
+      <c r="B18" s="39">
         <v>14</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41">
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43">
         <f>D18-E18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="39">
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="41">
         <f>SUM(G18:V18)</f>
         <v>0</v>
       </c>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="40">
+      <c r="X18" s="47"/>
+      <c r="Y18" s="42">
         <f>F18-W18+X18</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-    </row>
-    <row r="19" ht="21" customHeight="1">
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="49"/>
+    </row>
+    <row r="19" ht="25" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="37">
+      <c r="B19" s="39">
         <v>15</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41">
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43">
         <f>D19-E19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="39">
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="41">
         <f>SUM(G19:V19)</f>
         <v>0</v>
       </c>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="40">
+      <c r="X19" s="47"/>
+      <c r="Y19" s="42">
         <f>F19-W19+X19</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-    </row>
-    <row r="20" ht="21" customHeight="1">
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
+    </row>
+    <row r="20" ht="25" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="37">
+      <c r="B20" s="39">
         <v>16</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41">
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43">
         <f>D20-E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="39">
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="41">
         <f>SUM(G20:V20)</f>
         <v>0</v>
       </c>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="40">
+      <c r="X20" s="47"/>
+      <c r="Y20" s="42">
         <f>F20-W20+X20</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-    </row>
-    <row r="21" ht="21" customHeight="1">
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="49"/>
+    </row>
+    <row r="21" ht="25" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="37">
+      <c r="B21" s="39">
         <v>17</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43">
         <f>D21-E21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="39">
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="41">
         <f>SUM(G21:V21)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="40">
+      <c r="X21" s="47"/>
+      <c r="Y21" s="42">
         <f>F21-W21+X21</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-    </row>
-    <row r="22" ht="21" customHeight="1">
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+    </row>
+    <row r="22" ht="25" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="37">
+      <c r="B22" s="39">
         <v>18</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41">
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43">
         <f>D22-E22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="39">
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="41">
         <f>SUM(G22:V22)</f>
         <v>0</v>
       </c>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="40">
+      <c r="X22" s="47"/>
+      <c r="Y22" s="42">
         <f>F22-W22+X22</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-    </row>
-    <row r="23" ht="21" customHeight="1">
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="49"/>
+    </row>
+    <row r="23" ht="25" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="37">
+      <c r="B23" s="39">
         <v>19</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41">
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43">
         <f>D23-E23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="39">
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="41">
         <f>SUM(G23:V23)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="40">
+      <c r="X23" s="47"/>
+      <c r="Y23" s="42">
         <f>F23-W23+X23</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-    </row>
-    <row r="24" ht="21" customHeight="1">
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="49"/>
+    </row>
+    <row r="24" ht="25" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="37">
+      <c r="B24" s="39">
         <v>20</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41">
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43">
         <f>D24-E24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="39">
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="41">
         <f>SUM(G24:V24)</f>
         <v>0</v>
       </c>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="40">
+      <c r="X24" s="47"/>
+      <c r="Y24" s="42">
         <f>F24-W24+X24</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-    </row>
-    <row r="25" ht="21" customHeight="1">
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="49"/>
+    </row>
+    <row r="25" ht="25" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="37">
+      <c r="B25" s="39">
         <v>21</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41">
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43">
         <f>D25-E25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="39">
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="41">
         <f>SUM(G25:V25)</f>
         <v>0</v>
       </c>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="40">
+      <c r="X25" s="47"/>
+      <c r="Y25" s="42">
         <f>F25-W25+X25</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-    </row>
-    <row r="26" ht="21" customHeight="1">
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="49"/>
+    </row>
+    <row r="26" ht="25" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="37">
+      <c r="B26" s="39">
         <v>22</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41">
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43">
         <f>D26-E26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="39">
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="41">
         <f>SUM(G26:V26)</f>
         <v>0</v>
       </c>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="40">
+      <c r="X26" s="47"/>
+      <c r="Y26" s="42">
         <f>F26-W26+X26</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-    </row>
-    <row r="27" ht="21" customHeight="1">
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="49"/>
+    </row>
+    <row r="27" ht="25" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="37">
+      <c r="B27" s="39">
         <v>23</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41">
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43">
         <f>D27-E27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="39">
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="41">
         <f>SUM(G27:V27)</f>
         <v>0</v>
       </c>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="40">
+      <c r="X27" s="47"/>
+      <c r="Y27" s="42">
         <f>F27-W27+X27</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-    </row>
-    <row r="28" ht="21" customHeight="1">
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="49"/>
+    </row>
+    <row r="28" ht="25" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="37">
+      <c r="B28" s="39">
         <v>24</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41">
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43">
         <f>D28-E28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="39">
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="41">
         <f>SUM(G28:V28)</f>
         <v>0</v>
       </c>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="40">
+      <c r="X28" s="47"/>
+      <c r="Y28" s="42">
         <f>F28-W28+X28</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-    </row>
-    <row r="29" ht="21" customHeight="1">
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="49"/>
+    </row>
+    <row r="29" ht="25" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="37">
+      <c r="B29" s="39">
         <v>25</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41">
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43">
         <f>D29-E29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="39">
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="41">
         <f>SUM(G29:V29)</f>
         <v>0</v>
       </c>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="40">
+      <c r="X29" s="47"/>
+      <c r="Y29" s="42">
         <f>F29-W29+X29</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-    </row>
-    <row r="30" ht="21" customHeight="1">
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="49"/>
+    </row>
+    <row r="30" ht="25" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="37">
+      <c r="B30" s="39">
         <v>26</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41">
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43">
         <f>D30-E30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="39">
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="41">
         <f>SUM(G30:V30)</f>
         <v>0</v>
       </c>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="40">
+      <c r="X30" s="47"/>
+      <c r="Y30" s="42">
         <f>F30-W30+X30</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-    </row>
-    <row r="31" ht="21" customHeight="1">
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="49"/>
+    </row>
+    <row r="31" ht="25" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="37">
+      <c r="B31" s="39">
         <v>27</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41">
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43">
         <f>D31-E31</f>
         <v>0</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="39">
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="41">
         <f>SUM(G31:V31)</f>
         <v>0</v>
       </c>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="40">
+      <c r="X31" s="47"/>
+      <c r="Y31" s="42">
         <f>F31-W31+X31</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-    </row>
-    <row r="32" ht="21" customHeight="1">
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="49"/>
+    </row>
+    <row r="32" ht="25" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="37">
+      <c r="B32" s="39">
         <v>28</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41">
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43">
         <f>D32-E32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="39">
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="41">
         <f>SUM(G32:V32)</f>
         <v>0</v>
       </c>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="40">
+      <c r="X32" s="47"/>
+      <c r="Y32" s="42">
         <f>F32-W32+X32</f>
         <v>0</v>
       </c>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-    </row>
-    <row r="33" ht="21" customHeight="1">
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="49"/>
+    </row>
+    <row r="33" ht="25" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="37">
+      <c r="B33" s="39">
         <v>29</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41">
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43">
         <f>D33-E33</f>
         <v>0</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="39">
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="41">
         <f>SUM(G33:V33)</f>
         <v>0</v>
       </c>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="40">
+      <c r="X33" s="47"/>
+      <c r="Y33" s="42">
         <f>F33-W33+X33</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-    </row>
-    <row r="34" ht="21" customHeight="1">
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="49"/>
+    </row>
+    <row r="34" ht="25" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="37">
+      <c r="B34" s="39">
         <v>30</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41">
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43">
         <f>D34-E34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="39">
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="41">
         <f>SUM(G34:V34)</f>
         <v>0</v>
       </c>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="40">
+      <c r="X34" s="47"/>
+      <c r="Y34" s="42">
         <f>F34-W34+X34</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-    </row>
-    <row r="35" ht="21" customHeight="1">
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="49"/>
+    </row>
+    <row r="35" ht="25" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="37">
+      <c r="B35" s="39">
         <v>31</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41">
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43">
         <f>D35-E35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="39">
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="41">
         <f>SUM(G35:V35)</f>
         <v>0</v>
       </c>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="40">
+      <c r="X35" s="47"/>
+      <c r="Y35" s="42">
         <f>F35-W35+X35</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-    </row>
-    <row r="36" ht="21" customHeight="1">
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="49"/>
+    </row>
+    <row r="36" ht="11" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41">
-        <f>D36-E36</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="39">
-        <f>SUM(G36:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="40">
-        <f>F36-W36+X36</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-    </row>
-    <row r="37" ht="45" customHeight="1">
+      <c r="B36" s="50"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="49"/>
+    </row>
+    <row r="37" ht="37" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" t="s" s="48">
-        <v>13</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50">
+      <c r="B37" t="s" s="51">
+        <v>14</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53">
         <f>SUM(D5:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="54">
         <f>SUM(E5:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="55">
         <f>SUM(F5:F36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37" s="56">
         <f>SUM(G5:G36)</f>
         <v>0</v>
       </c>
@@ -3366,71 +3471,71 @@
         <f>SUM(U5:U36)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="51">
+      <c r="V37" s="54">
         <f>SUM(V5:V36)</f>
         <v>0</v>
       </c>
-      <c r="W37" s="54">
+      <c r="W37" s="56">
         <f>SUM(W5:W36)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="55">
+      <c r="X37" s="53">
         <f>SUM(X5:X36)</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="56">
+      <c r="Y37" s="54">
         <f>SUM(Y5:Y36)</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="57">
+      <c r="Z37" s="56">
         <f>SUM(Z5:Z36)</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="57">
+      <c r="AA37" s="54">
         <f>SUM(AA5:AA36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" ht="14.5" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="58"/>
-      <c r="W38" s="58"/>
-      <c r="X38" s="58"/>
-      <c r="Y38" s="58"/>
-      <c r="Z38" s="58"/>
-      <c r="AA38" s="58"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
     </row>
     <row r="39" ht="9" customHeight="1" hidden="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60">
+      <c r="C39" s="58"/>
+      <c r="D39" s="59">
         <v>2015</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="59">
         <v>2</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="59">
         <f>WEEKDAY(DATE($D$39,$E$39,B5),1)</f>
         <v>1</v>
       </c>
@@ -3488,16 +3593,16 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H2:J2"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="B1 D5:F37 W5:Y36 G37:AA37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0" right="0" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="50" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="53" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/app/webroot/excel/monthly-report-expense.xlsx
+++ b/app/webroot/excel/monthly-report-expense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazukikawabata/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08DE32-C6B2-A248-948E-5DD82958532E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5714BA-5431-DD4F-A401-296DA342A3B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-380" yWindow="500" windowWidth="24300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="26020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense(Ikebukuro)" sheetId="1" r:id="rId1"/>
@@ -41,25 +41,25 @@
   </si>
   <si>
     <t>【店内経費支払表】</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>※税込</t>
     <rPh sb="0" eb="1">
       <t>ゼイコミ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>クレジット</t>
     <rPh sb="0" eb="2">
       <t>ウリカケ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>差引現金</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -80,7 +80,7 @@
     <rPh sb="0" eb="2">
       <t>ワリビキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -101,7 +101,7 @@
     <rPh sb="0" eb="2">
       <t>ウリカケ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -119,7 +119,7 @@
       </rPr>
       <t>(その他)</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -140,7 +140,7 @@
     <rPh sb="0" eb="1">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -161,7 +161,7 @@
     <rPh sb="0" eb="2">
       <t>デマエ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0&quot; &quot;;\(#,##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -186,13 +186,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="19"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
@@ -244,6 +237,22 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="22"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐ明朝"/>
@@ -251,21 +260,30 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="19"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,18 +298,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,8 +308,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1016,19 +1028,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1055,11 +1054,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1078,9 +1077,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,145 +1137,151 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="38" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2484,27 +2486,28 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="89" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="4.33203125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="4.33203125" style="11" customWidth="1"/>
     <col min="4" max="6" width="11.6640625" style="3" customWidth="1"/>
-    <col min="7" max="20" width="8.33203125" style="3" customWidth="1"/>
-    <col min="21" max="22" width="8.83203125" style="12" customWidth="1"/>
+    <col min="7" max="20" width="9" style="3" customWidth="1"/>
+    <col min="21" max="22" width="9" style="11" customWidth="1"/>
     <col min="23" max="25" width="11.83203125" style="3" customWidth="1"/>
-    <col min="26" max="27" width="16" style="3" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="16.5" style="3" customWidth="1"/>
     <col min="28" max="28" width="8.83203125" style="3" customWidth="1"/>
     <col min="29" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="8" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2522,8 +2525,8 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -2532,29 +2535,29 @@
     </row>
     <row r="2" spans="1:27" ht="40" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -2563,1221 +2566,1500 @@
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="37" customHeight="1" thickBot="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="34" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="X4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Y4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="39" t="s">
+      <c r="Z4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="40" t="s">
+      <c r="AA4" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="25" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="57"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43">
+        <f>D5-E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="41">
+        <f>SUM(G5:V5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="45">
+        <f>F5-W5+X5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" ht="25" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="63"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49">
+        <f t="shared" ref="F6:F35" si="0">D6-E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="47">
+        <f t="shared" ref="W6:W35" si="1">SUM(G6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="51">
+        <f t="shared" ref="Y6:Y35" si="2">F6-W6+X6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="51"/>
     </row>
     <row r="7" spans="1:27" ht="25" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="63"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="51"/>
     </row>
     <row r="8" spans="1:27" ht="25" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21">
         <v>4</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="63"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="51"/>
     </row>
     <row r="9" spans="1:27" ht="25" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22">
+      <c r="A9" s="19"/>
+      <c r="B9" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="63"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="51"/>
     </row>
     <row r="10" spans="1:27" ht="25" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21">
         <v>6</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="63"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="51"/>
     </row>
     <row r="11" spans="1:27" ht="25" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="63"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="51"/>
     </row>
     <row r="12" spans="1:27" ht="25" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21">
         <v>8</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="63"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="51"/>
     </row>
     <row r="13" spans="1:27" ht="25" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21">
         <v>9</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="63"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="51"/>
     </row>
     <row r="14" spans="1:27" ht="25" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21">
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="63"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="51"/>
     </row>
     <row r="15" spans="1:27" ht="25" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21">
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="63"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="51"/>
     </row>
     <row r="16" spans="1:27" ht="25" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21">
         <v>12</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="63"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="51"/>
     </row>
     <row r="17" spans="1:27" ht="25" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21">
         <v>13</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="63"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="51"/>
     </row>
     <row r="18" spans="1:27" ht="25" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21">
         <v>14</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="63"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="51"/>
     </row>
     <row r="19" spans="1:27" ht="25" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22">
+      <c r="A19" s="19"/>
+      <c r="B19" s="21">
         <v>15</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="63"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="51"/>
     </row>
     <row r="20" spans="1:27" ht="25" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22">
+      <c r="A20" s="19"/>
+      <c r="B20" s="21">
         <v>16</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="63"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="51"/>
     </row>
     <row r="21" spans="1:27" ht="25" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22">
+      <c r="A21" s="19"/>
+      <c r="B21" s="21">
         <v>17</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="63"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="51"/>
     </row>
     <row r="22" spans="1:27" ht="25" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22">
+      <c r="A22" s="19"/>
+      <c r="B22" s="21">
         <v>18</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="63"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="51"/>
     </row>
     <row r="23" spans="1:27" ht="25" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22">
+      <c r="A23" s="19"/>
+      <c r="B23" s="21">
         <v>19</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="63"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="51"/>
     </row>
     <row r="24" spans="1:27" ht="25" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22">
+      <c r="A24" s="19"/>
+      <c r="B24" s="21">
         <v>20</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="63"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="51"/>
     </row>
     <row r="25" spans="1:27" ht="25" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21">
         <v>21</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="63"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="47"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="51"/>
     </row>
     <row r="26" spans="1:27" ht="25" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="22">
+      <c r="A26" s="19"/>
+      <c r="B26" s="21">
         <v>22</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="63"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="51"/>
     </row>
     <row r="27" spans="1:27" ht="25" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21">
         <v>23</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="63"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="51"/>
     </row>
     <row r="28" spans="1:27" ht="25" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21">
         <v>24</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="63"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="51"/>
     </row>
     <row r="29" spans="1:27" ht="25" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22">
+      <c r="A29" s="19"/>
+      <c r="B29" s="21">
         <v>25</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="63"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="51"/>
     </row>
     <row r="30" spans="1:27" ht="25" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21">
         <v>26</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="63"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="51"/>
     </row>
     <row r="31" spans="1:27" ht="25" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21">
         <v>27</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="63"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="47"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="51"/>
     </row>
     <row r="32" spans="1:27" ht="25" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22">
+      <c r="A32" s="19"/>
+      <c r="B32" s="21">
         <v>28</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="63"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="51"/>
     </row>
     <row r="33" spans="1:27" ht="25" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21">
         <v>29</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="63"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="51"/>
     </row>
     <row r="34" spans="1:27" ht="25" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22">
+      <c r="A34" s="19"/>
+      <c r="B34" s="21">
         <v>30</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="63"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="51"/>
     </row>
     <row r="35" spans="1:27" ht="25" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22">
+      <c r="A35" s="19"/>
+      <c r="B35" s="21">
         <v>31</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="63"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="51"/>
     </row>
     <row r="36" spans="1:27" ht="11" customHeight="1" thickBot="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="69"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="57"/>
     </row>
     <row r="37" spans="1:27" ht="37" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="47">
+      <c r="C37" s="71"/>
+      <c r="D37" s="37">
         <f>SUM(D5:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="48">
-        <f t="shared" ref="E37:AA37" si="0">SUM(E5:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="47">
+      <c r="E37" s="38">
+        <f>SUM(E5:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="38">
+        <f>SUM(F5:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="39">
+        <f>SUM(G5:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="37">
+        <f t="shared" ref="H37:V37" si="3">SUM(H5:H36)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="37">
         <f>SUM(U5:U36)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="51">
-        <f t="shared" si="0"/>
+      <c r="V37" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="39">
+        <f>SUM(W5:W36)</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="37">
+        <f>SUM(X5:X36)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="40">
+        <f>SUM(Y5:Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="65">
+        <f>SUM(Z5:Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="66">
+        <f>SUM(AA5:AA36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="14.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
     </row>
     <row r="39" spans="1:27" ht="9" hidden="1" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8">
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7">
         <v>2015</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>2</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <f>WEEKDAY(DATE($D$39,$E$39,B5),1)</f>
         <v>1</v>
       </c>
@@ -3795,8 +4077,8 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -3805,8 +4087,8 @@
     </row>
     <row r="40" spans="1:27" ht="14" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3824,8 +4106,8 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -3838,7 +4120,7 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="F2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="B1 W5:Y36 G37:AA37 D5:F37">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
